--- a/public/StructureDefinition-AppleHealthKitObject.xlsx
+++ b/public/StructureDefinition-AppleHealthKitObject.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/sphr/StructureDefinition/AppleHealthKitObject</t>
+    <t>http://hl7.org/fhir/uv/phr/StructureDefinition/AppleHealthKitObject</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T01:07:49-06:00</t>
+    <t>2024-12-13T21:36:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitObject.xlsx
+++ b/public/StructureDefinition-AppleHealthKitObject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T21:36:12-06:00</t>
+    <t>2024-12-15T10:45:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitObject.xlsx
+++ b/public/StructureDefinition-AppleHealthKitObject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T10:45:04-06:00</t>
+    <t>2024-12-15T12:17:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitObject.xlsx
+++ b/public/StructureDefinition-AppleHealthKitObject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:17:17-06:00</t>
+    <t>2024-12-15T12:20:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitObject.xlsx
+++ b/public/StructureDefinition-AppleHealthKitObject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T12:20:20-06:00</t>
+    <t>2024-12-15T20:08:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitObject.xlsx
+++ b/public/StructureDefinition-AppleHealthKitObject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-15T20:08:17-06:00</t>
+    <t>2024-12-18T01:48:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/StructureDefinition-AppleHealthKitObject.xlsx
+++ b/public/StructureDefinition-AppleHealthKitObject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T01:48:59-06:00</t>
+    <t>2024-12-18T11:20:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
